--- a/test.xlsx
+++ b/test.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7170" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7170" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="89">
   <si>
     <t>dfadfaa39598cf760125439346d903ea0467e7fa</t>
   </si>
@@ -284,6 +285,15 @@
   </si>
   <si>
     <t>SOVHDXE12A6310FF8A</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>hours</t>
   </si>
 </sst>
 </file>
@@ -2053,7 +2063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -2759,4 +2769,89 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2.3741999999999999E-2</v>
+      </c>
+      <c r="B1">
+        <v>110000</v>
+      </c>
+      <c r="C1">
+        <f>B1*A1</f>
+        <v>2611.62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>C1/60</f>
+        <v>43.527000000000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f>C2/60</f>
+        <v>0.72545000000000004</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0.103448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f>SUM(H4:H6)</f>
+        <v>0.68678099999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f>1/1*(1/24)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H8">
+        <f>H7/3</f>
+        <v>0.22892699999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f>1/(26*4)</f>
+        <v>9.6153846153846159E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7170" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7170" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
     <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
+    <sheet name="Feuil5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -2773,9 +2774,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2783,14 +2784,14 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>2.3741999999999999E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="B1">
         <v>110000</v>
       </c>
       <c r="C1">
         <f>B1*A1</f>
-        <v>2611.62</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
         <v>86</v>
@@ -2799,7 +2800,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2">
         <f>C1/60</f>
-        <v>43.527000000000001</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D2" t="s">
         <v>87</v>
@@ -2808,7 +2809,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3">
         <f>C2/60</f>
-        <v>0.72545000000000004</v>
+        <v>1.5277777777777777E-2</v>
       </c>
       <c r="D3" t="s">
         <v>88</v>
@@ -2851,6 +2852,255 @@
         <v>9.6153846153846159E-3</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>1/231</f>
+        <v>4.329004329004329E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f>1/208</f>
+        <v>4.807692307692308E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <f>1/F18</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <f>SQRT(B19)</f>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <f>2/F19</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <f>SQRT(B20)</f>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="F20">
+        <v>134</v>
+      </c>
+      <c r="G20">
+        <f>3/F20</f>
+        <v>2.2388059701492536E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f>COUNT(F18:F20)</f>
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <f>SUM(G18:G20)</f>
+        <v>0.92238805970149251</v>
+      </c>
+      <c r="H21">
+        <f>G21/F21</f>
+        <v>0.30746268656716419</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>B21/(C19*C20)</f>
+        <v>0.18257418583505536</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>15105</v>
+      </c>
+      <c r="B1" t="e">
+        <f>VLOOKUP(A1,$C$1:$C$6,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C1">
+        <v>52395</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <f>2/(SQRT(13)*SQRT(6))</f>
+        <v>0.22645540682891918</v>
+      </c>
+      <c r="H1">
+        <f>SQRT(13)</f>
+        <v>3.6055512754639891</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>35074</v>
+      </c>
+      <c r="B2" t="e">
+        <f t="shared" ref="B2:B13" si="0">VLOOKUP(A2,$C$1:$C$6,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C2">
+        <v>9070</v>
+      </c>
+      <c r="H2">
+        <f>SQRT(6)</f>
+        <v>2.4494897427831779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20952</v>
+      </c>
+      <c r="B3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C3">
+        <v>45999</v>
+      </c>
+      <c r="H3">
+        <f>H2*H1</f>
+        <v>8.831760866327846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>52395</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>52395</v>
+      </c>
+      <c r="C4">
+        <v>68498</v>
+      </c>
+      <c r="H4">
+        <f>2/H3</f>
+        <v>0.22645540682891918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>24876</v>
+      </c>
+      <c r="B5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C5">
+        <v>56468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20930</v>
+      </c>
+      <c r="B6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C6">
+        <v>47128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>45999</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>45999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>78257</v>
+      </c>
+      <c r="B8" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>19635</v>
+      </c>
+      <c r="B9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25559</v>
+      </c>
+      <c r="B10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>74232</v>
+      </c>
+      <c r="B11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>78265</v>
+      </c>
+      <c r="B12" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>28348</v>
+      </c>
+      <c r="B13" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7170" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7170" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="90">
   <si>
     <t>dfadfaa39598cf760125439346d903ea0467e7fa</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>hours</t>
+  </si>
+  <si>
+    <t>times</t>
   </si>
 </sst>
 </file>
@@ -2774,158 +2777,98 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="B2">
         <v>110000</v>
       </c>
-      <c r="C1">
-        <f>B1*A1</f>
-        <v>55</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2">
+        <f>B2*A2</f>
+        <v>2860</v>
+      </c>
+      <c r="D2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2">
-        <f>C1/60</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>C2*E$1</f>
+        <v>60060</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3">
         <f>C2/60</f>
-        <v>1.5277777777777777E-2</v>
+        <v>47.666666666666664</v>
       </c>
       <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="0">C3*E$1</f>
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f>C3/60</f>
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="D4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H5">
-        <v>0.33333299999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H6">
-        <v>0.103448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H7">
-        <f>SUM(H4:H6)</f>
-        <v>0.68678099999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E8">
-        <f>1/1*(1/24)</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="H8">
-        <f>H7/3</f>
-        <v>0.22892699999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>16.683333333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.4E-2</v>
+      </c>
+      <c r="B8">
+        <v>175521</v>
+      </c>
+      <c r="C8">
+        <f>B8*A8</f>
+        <v>2457.2939999999999</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9">
-        <f>1/(26*4)</f>
-        <v>9.6153846153846159E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14">
-        <f>1/231</f>
-        <v>4.329004329004329E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15">
-        <f>1/208</f>
-        <v>4.807692307692308E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <f>1/F18</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <f>SQRT(B19)</f>
-        <v>1.7320508075688772</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19">
-        <f>2/F19</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <f>SQRT(B20)</f>
-        <v>3.1622776601683795</v>
-      </c>
-      <c r="F20">
-        <v>134</v>
-      </c>
-      <c r="G20">
-        <f>3/F20</f>
-        <v>2.2388059701492536E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <f>COUNT(F18:F20)</f>
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <f>SUM(G18:G20)</f>
-        <v>0.92238805970149251</v>
-      </c>
-      <c r="H21">
-        <f>G21/F21</f>
-        <v>0.30746268656716419</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <f>B21/(C19*C20)</f>
-        <v>0.18257418583505536</v>
+        <f>C8/60</f>
+        <v>40.954899999999995</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>C9/60</f>
+        <v>0.68258166666666653</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2937,7 +2880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>

--- a/test.xlsx
+++ b/test.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
     <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
     <sheet name="Feuil5" sheetId="5" r:id="rId5"/>
+    <sheet name="Feuil6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="88">
   <si>
     <t>dfadfaa39598cf760125439346d903ea0467e7fa</t>
   </si>
@@ -291,13 +292,7 @@
     <t>seconds</t>
   </si>
   <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>times</t>
+    <t>214134@1 94237@18 213388@19 84870@43 190853@49 209112@202 174139@371</t>
   </si>
 </sst>
 </file>
@@ -333,8 +328,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2777,102 +2774,114 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E14" sqref="D12:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2.5999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="B2">
-        <v>110000</v>
-      </c>
-      <c r="C2">
+        <v>50000</v>
+      </c>
+      <c r="C2" s="1">
         <f>B2*A2</f>
-        <v>2860</v>
+        <v>1150</v>
       </c>
       <c r="D2" t="s">
         <v>86</v>
       </c>
-      <c r="E2">
-        <f>C2*E$1</f>
-        <v>60060</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <f>C2/60</f>
-        <v>47.666666666666664</v>
-      </c>
-      <c r="D3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E4" si="0">C3*E$1</f>
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <f>C3/60</f>
-        <v>0.7944444444444444</v>
-      </c>
-      <c r="D4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>16.683333333333334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="2">
+        <f>TIME(,,C2)</f>
+        <v>1.3310185185185187E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="E3" s="2">
+        <f>E2*E1</f>
+        <v>0.27951388888888895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="B7">
+        <v>205534</v>
+      </c>
+      <c r="C7" s="1">
+        <f>B7*A7</f>
+        <v>945.45640000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1.4E-2</v>
+        <f>A10+A7</f>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="B8">
-        <v>175521</v>
-      </c>
-      <c r="C8">
+        <v>110000</v>
+      </c>
+      <c r="C8" s="1">
         <f>B8*A8</f>
-        <v>2457.2939999999999</v>
-      </c>
-      <c r="D8" t="s">
+        <v>506</v>
+      </c>
+      <c r="E8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <f>SUM(C7:C8)</f>
+        <v>1451.4564</v>
+      </c>
+      <c r="D9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <f>C8/60</f>
-        <v>40.954899999999995</v>
-      </c>
-      <c r="D9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <f>C9/60</f>
-        <v>0.68258166666666653</v>
-      </c>
-      <c r="D10" t="s">
-        <v>88</v>
-      </c>
+      <c r="E9" s="2">
+        <f>TIME(,,C9)</f>
+        <v>1.6793981481481483E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="E10" s="2">
+        <f>E9*E8</f>
+        <v>0.35267361111111112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2881,7 +2890,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3047,4 +3056,160 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="73.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>B2/A2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C8" si="0">B3/A3</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>9.3023255813953487E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.10204081632653061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>202</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2.9702970297029702E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>371</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.8867924528301886E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f>AVERAGE(C2:C8)</f>
+        <v>0.21609154498843317</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <f>E17/F17</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <f>E18/F18</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <f>E19/F19</f>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f>AVERAGE(G17:G19)</f>
+        <v>0.27136752136752135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -2777,7 +2777,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="D12:E14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2792,53 +2792,52 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2.3E-2</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="B2">
-        <v>50000</v>
+        <v>110000</v>
       </c>
       <c r="C2" s="1">
         <f>B2*A2</f>
-        <v>1150</v>
+        <v>605</v>
       </c>
       <c r="D2" t="s">
         <v>86</v>
       </c>
       <c r="E2" s="2">
         <f>TIME(,,C2)</f>
-        <v>1.3310185185185187E-2</v>
+        <v>7.0023148148148154E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="E3" s="2">
         <f>E2*E1</f>
-        <v>0.27951388888888895</v>
+        <v>0.14704861111111112</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4.5999999999999999E-3</v>
+        <v>7.6999999999999996E-4</v>
       </c>
       <c r="B7">
-        <v>205534</v>
+        <v>116000</v>
       </c>
       <c r="C7" s="1">
         <f>B7*A7</f>
-        <v>945.45640000000003</v>
+        <v>89.32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>A10+A7</f>
-        <v>4.5999999999999999E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="B8">
         <v>110000</v>
       </c>
       <c r="C8" s="1">
         <f>B8*A8</f>
-        <v>506</v>
+        <v>308</v>
       </c>
       <c r="E8">
         <v>21</v>
@@ -2847,21 +2846,21 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <f>SUM(C7:C8)</f>
-        <v>1451.4564</v>
+        <v>397.32</v>
       </c>
       <c r="D9" t="s">
         <v>86</v>
       </c>
       <c r="E9" s="2">
         <f>TIME(,,C9)</f>
-        <v>1.6793981481481483E-2</v>
+        <v>4.5949074074074069E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="E10" s="2">
         <f>E9*E8</f>
-        <v>0.35267361111111112</v>
+        <v>9.649305555555554E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/test.xlsx
+++ b/test.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7170" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7170" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
     <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
-    <sheet name="Feuil5" sheetId="5" r:id="rId5"/>
-    <sheet name="Feuil6" sheetId="6" r:id="rId6"/>
+    <sheet name="Feuil7" sheetId="7" r:id="rId5"/>
+    <sheet name="Feuil5" sheetId="5" r:id="rId6"/>
+    <sheet name="Feuil6" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -2776,7 +2777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2885,6 +2886,129 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>0.15676898520300001</v>
+      </c>
+      <c r="C2">
+        <f>ROUND(B2,4)</f>
+        <v>0.15679999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>0.16450481914599999</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C10" si="0">ROUND(B3,4)</f>
+        <v>0.16450000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <v>0.16829094759999999</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.16830000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <v>0.169243454697</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.16919999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <v>0.16806648548799999</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.1681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.6</v>
+      </c>
+      <c r="B7">
+        <v>0.16501957646599999</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <v>0.160157522025</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.16020000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.8</v>
+      </c>
+      <c r="B9">
+        <v>0.15339026845100001</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.15340000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.9</v>
+      </c>
+      <c r="B10">
+        <v>0.14553433986600001</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.14549999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -3057,7 +3181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
